--- a/output/single_track_results/2C-16H_container_throughput_40_batch_size_20.xlsx
+++ b/output/single_track_results/2C-16H_container_throughput_40_batch_size_20.xlsx
@@ -858,10 +858,10 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
       <c r="H2">
-        <v>7.577971801133199</v>
+        <v>13.70356790077471</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.577971801133199</v>
+        <v>13.70356790077471</v>
       </c>
       <c r="M2">
-        <v>7.960509299698561</v>
+        <v>14.11575749601721</v>
       </c>
       <c r="N2">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O2">
         <v>24</v>
@@ -885,10 +885,10 @@
         <v>138</v>
       </c>
       <c r="Q2">
-        <v>0.718175792910559</v>
+        <v>0.7906120756678003</v>
       </c>
       <c r="R2">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -896,31 +896,31 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C3">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D3">
-        <v>7.463557172014398</v>
+        <v>13.5535571720144</v>
       </c>
       <c r="E3">
-        <v>7.585942446695929</v>
+        <v>13.64284455936509</v>
       </c>
       <c r="F3">
-        <v>7.476036176700134</v>
+        <v>13.56874933182138</v>
       </c>
       <c r="G3">
-        <v>7.476036176700134</v>
+        <v>13.56874933182138</v>
       </c>
       <c r="I3">
-        <v>7.569753138591884</v>
+        <v>13.64636230155324</v>
       </c>
       <c r="P3" t="s">
         <v>139</v>
       </c>
       <c r="Q3">
-        <v>0.1397531385918844</v>
+        <v>0.1263623015532414</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -928,10 +928,10 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>7.585942446695929</v>
+        <v>13.68627496907857</v>
       </c>
       <c r="H4">
-        <v>7.596707545656075</v>
+        <v>13.73054041432558</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.596707545656075</v>
+        <v>13.73054041432558</v>
       </c>
       <c r="M4">
-        <v>7.960664885773912</v>
+        <v>14.14899883821514</v>
       </c>
       <c r="N4">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O4">
         <v>24</v>
@@ -955,10 +955,10 @@
         <v>138</v>
       </c>
       <c r="Q4">
-        <v>0.6924215780936649</v>
+        <v>0.7471816659543187</v>
       </c>
       <c r="R4">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -966,31 +966,31 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C5">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D5">
-        <v>7.463527260943052</v>
+        <v>13.55352726094305</v>
       </c>
       <c r="E5">
-        <v>7.560188231879035</v>
+        <v>13.66016548698329</v>
       </c>
       <c r="F5">
-        <v>7.489661559113517</v>
+        <v>13.5989538037439</v>
       </c>
       <c r="G5">
-        <v>7.489661559113517</v>
+        <v>13.5989538037439</v>
       </c>
       <c r="I5">
-        <v>7.547968374692979</v>
+        <v>13.68119424476753</v>
       </c>
       <c r="P5" t="s">
         <v>139</v>
       </c>
       <c r="Q5">
-        <v>0.1179683746929792</v>
+        <v>0.1611942447675272</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -998,10 +998,10 @@
         <v>22</v>
       </c>
       <c r="F6">
-        <v>7.594714882296722</v>
+        <v>13.66016548698329</v>
       </c>
       <c r="H6">
-        <v>7.641568283576794</v>
+        <v>13.69781749400605</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1010,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.641568283576794</v>
+        <v>13.69781749400605</v>
       </c>
       <c r="M6">
-        <v>7.994249724666413</v>
+        <v>14.11560190994186</v>
       </c>
       <c r="N6">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O6">
         <v>24</v>
@@ -1025,10 +1025,10 @@
         <v>138</v>
       </c>
       <c r="Q6">
-        <v>0.6836491424928726</v>
+        <v>0.7732911480495925</v>
       </c>
       <c r="R6">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1036,31 +1036,31 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C7">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D7">
-        <v>7.496955108308751</v>
+        <v>13.58695510830875</v>
       </c>
       <c r="E7">
-        <v>7.594714882296722</v>
+        <v>13.68627496907857</v>
       </c>
       <c r="F7">
-        <v>7.56343897682433</v>
+        <v>13.60981648102922</v>
       </c>
       <c r="G7">
-        <v>7.56343897682433</v>
+        <v>13.60981648102922</v>
       </c>
       <c r="I7">
-        <v>7.621547731667012</v>
+        <v>13.66603373732583</v>
       </c>
       <c r="P7" t="s">
         <v>139</v>
       </c>
       <c r="Q7">
-        <v>0.1915477316670122</v>
+        <v>0.1460337373258334</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1068,10 +1068,10 @@
         <v>24</v>
       </c>
       <c r="F8">
-        <v>7.626893099694364</v>
+        <v>13.75891671117525</v>
       </c>
       <c r="H8">
-        <v>7.6388019709686</v>
+        <v>13.78165842546674</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1080,13 +1080,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.6388019709686</v>
+        <v>13.78165842546674</v>
       </c>
       <c r="M8">
-        <v>7.993906227971842</v>
+        <v>14.18257095915965</v>
       </c>
       <c r="N8">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O8">
         <v>24</v>
@@ -1095,10 +1095,10 @@
         <v>138</v>
       </c>
       <c r="Q8">
-        <v>0.6514709250952304</v>
+        <v>0.6745399238576351</v>
       </c>
       <c r="R8">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1106,31 +1106,31 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C9">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D9">
-        <v>7.497156397867789</v>
+        <v>13.58715639786779</v>
       </c>
       <c r="E9">
-        <v>7.666207892527041</v>
+        <v>13.75891671117525</v>
       </c>
       <c r="F9">
-        <v>7.564681164935585</v>
+        <v>13.66179831524085</v>
       </c>
       <c r="G9">
-        <v>7.564681164935585</v>
+        <v>13.66179831524085</v>
       </c>
       <c r="I9">
-        <v>7.667534813980344</v>
+        <v>13.73557299334832</v>
       </c>
       <c r="P9" t="s">
         <v>139</v>
       </c>
       <c r="Q9">
-        <v>0.2375348139803446</v>
+        <v>0.2155729933483226</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1138,10 +1138,10 @@
         <v>26</v>
       </c>
       <c r="F10">
-        <v>7.666207892527041</v>
+        <v>13.76280245989675</v>
       </c>
       <c r="H10">
-        <v>7.74249957627905</v>
+        <v>13.78976556738596</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.74249957627905</v>
+        <v>13.78976556738596</v>
       </c>
       <c r="M10">
-        <v>8.027602740596938</v>
+        <v>14.18269535084023</v>
       </c>
       <c r="N10">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O10">
         <v>24</v>
@@ -1165,10 +1165,10 @@
         <v>138</v>
       </c>
       <c r="Q10">
-        <v>0.6121561322625535</v>
+        <v>0.6706541751361321</v>
       </c>
       <c r="R10">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1176,31 +1176,31 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C11">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D11">
-        <v>7.530456143317464</v>
+        <v>13.62052385674385</v>
       </c>
       <c r="E11">
-        <v>7.626893099694364</v>
+        <v>13.75387060119007</v>
       </c>
       <c r="F11">
-        <v>7.5648592261254</v>
+        <v>13.69268857078143</v>
       </c>
       <c r="G11">
-        <v>7.5648592261254</v>
+        <v>13.69268857078143</v>
       </c>
       <c r="I11">
-        <v>7.667008886275717</v>
+        <v>13.79936304621498</v>
       </c>
       <c r="P11" t="s">
         <v>139</v>
       </c>
       <c r="Q11">
-        <v>0.2370088862757171</v>
+        <v>0.2793630462149839</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1208,31 +1208,31 @@
         <v>28</v>
       </c>
       <c r="B12">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C12">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D12">
-        <v>7.530692434475204</v>
+        <v>13.62071393349925</v>
       </c>
       <c r="E12">
-        <v>7.680018758471475</v>
+        <v>13.75738434997966</v>
       </c>
       <c r="F12">
-        <v>7.589039268466507</v>
+        <v>13.69628702281312</v>
       </c>
       <c r="G12">
-        <v>7.589039268466507</v>
+        <v>13.69628702281312</v>
       </c>
       <c r="I12">
-        <v>7.668715561487706</v>
+        <v>13.77735626458806</v>
       </c>
       <c r="P12" t="s">
         <v>139</v>
       </c>
       <c r="Q12">
-        <v>0.2387155614877061</v>
+        <v>0.2573562645880614</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1240,10 +1240,10 @@
         <v>29</v>
       </c>
       <c r="F13">
-        <v>7.695168520852127</v>
+        <v>13.75738434997966</v>
       </c>
       <c r="H13">
-        <v>7.765540485341266</v>
+        <v>13.7965837853505</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1252,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.765540485341266</v>
+        <v>13.7965837853505</v>
       </c>
       <c r="M13">
-        <v>8.09427063820573</v>
+        <v>14.21597040489142</v>
       </c>
       <c r="N13">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O13">
         <v>24</v>
@@ -1267,10 +1267,10 @@
         <v>138</v>
       </c>
       <c r="Q13">
-        <v>0.5831955039374668</v>
+        <v>0.6760722850532304</v>
       </c>
       <c r="R13">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1278,31 +1278,31 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C14">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D14">
-        <v>7.564019866835312</v>
+        <v>13.65401053469698</v>
       </c>
       <c r="E14">
-        <v>7.656789262853653</v>
+        <v>13.76024549209343</v>
       </c>
       <c r="F14">
-        <v>7.61077921202439</v>
+        <v>13.72396241661553</v>
       </c>
       <c r="G14">
-        <v>7.61077921202439</v>
+        <v>13.72396241661553</v>
       </c>
       <c r="I14">
-        <v>7.679755216589585</v>
+        <v>13.79155386112548</v>
       </c>
       <c r="P14" t="s">
         <v>139</v>
       </c>
       <c r="Q14">
-        <v>0.2497552165895858</v>
+        <v>0.2715538611254829</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1310,10 +1310,10 @@
         <v>31</v>
       </c>
       <c r="F15">
-        <v>7.680018758471475</v>
+        <v>13.75387060119007</v>
       </c>
       <c r="H15">
-        <v>7.747279745592394</v>
+        <v>13.80912929477002</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1322,13 +1322,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.747279745592394</v>
+        <v>13.80912929477002</v>
       </c>
       <c r="M15">
-        <v>8.060877794648126</v>
+        <v>14.2162145113342</v>
       </c>
       <c r="N15">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O15">
         <v>24</v>
@@ -1337,10 +1337,10 @@
         <v>138</v>
       </c>
       <c r="Q15">
-        <v>0.5983452663181197</v>
+        <v>0.6795860338428117</v>
       </c>
       <c r="R15">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1348,31 +1348,31 @@
         <v>32</v>
       </c>
       <c r="B16">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C16">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D16">
-        <v>7.564265130836401</v>
+        <v>13.65421907787491</v>
       </c>
       <c r="E16">
-        <v>7.695168520852127</v>
+        <v>13.76280245989675</v>
       </c>
       <c r="F16">
-        <v>7.583474117921213</v>
+        <v>13.70553271922425</v>
       </c>
       <c r="G16">
-        <v>7.583474117921213</v>
+        <v>13.70553271922425</v>
       </c>
       <c r="I16">
-        <v>7.669606878661261</v>
+        <v>13.79310954833429</v>
       </c>
       <c r="P16" t="s">
         <v>139</v>
       </c>
       <c r="Q16">
-        <v>0.2396068786612613</v>
+        <v>0.2731095483342862</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1380,10 +1380,10 @@
         <v>33</v>
       </c>
       <c r="F17">
-        <v>7.656789262853653</v>
+        <v>13.76024549209343</v>
       </c>
       <c r="H17">
-        <v>7.719206230081668</v>
+        <v>13.77603222788355</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.719206230081668</v>
+        <v>13.77603222788355</v>
       </c>
       <c r="M17">
-        <v>8.027478348916357</v>
+        <v>14.14934233490971</v>
       </c>
       <c r="N17">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O17">
         <v>24</v>
@@ -1407,10 +1407,10 @@
         <v>138</v>
       </c>
       <c r="Q17">
-        <v>0.6215747619359409</v>
+        <v>0.6732111429394561</v>
       </c>
       <c r="R17">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1418,31 +1418,31 @@
         <v>34</v>
       </c>
       <c r="B18">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C18">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D18">
-        <v>7.597416505245215</v>
+        <v>13.68736603246835</v>
       </c>
       <c r="E18">
-        <v>7.686692853421586</v>
+        <v>13.8366193978648</v>
       </c>
       <c r="F18">
-        <v>7.638854047695103</v>
+        <v>13.72980833319116</v>
       </c>
       <c r="G18">
-        <v>7.638854047695103</v>
+        <v>13.72980833319116</v>
       </c>
       <c r="I18">
-        <v>7.706159404500752</v>
+        <v>13.81857352372376</v>
       </c>
       <c r="P18" t="s">
         <v>139</v>
       </c>
       <c r="Q18">
-        <v>0.2761594045007518</v>
+        <v>0.2985735237237623</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1450,10 +1450,10 @@
         <v>35</v>
       </c>
       <c r="F19">
-        <v>7.686692853421586</v>
+        <v>13.82064146113546</v>
       </c>
       <c r="H19">
-        <v>7.756529787965727</v>
+        <v>13.87736504470028</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1462,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.756529787965727</v>
+        <v>13.87736504470028</v>
       </c>
       <c r="M19">
-        <v>8.06112190109091</v>
+        <v>14.24958459795885</v>
       </c>
       <c r="N19">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O19">
         <v>24</v>
@@ -1477,10 +1477,10 @@
         <v>138</v>
       </c>
       <c r="Q19">
-        <v>0.5916711713680085</v>
+        <v>0.6128151738974275</v>
       </c>
       <c r="R19">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1488,10 +1488,10 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>7.741752537348576</v>
+        <v>13.8366193978648</v>
       </c>
       <c r="H20">
-        <v>7.769298134696864</v>
+        <v>13.85284639232038</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1500,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.769298134696864</v>
+        <v>13.85284639232038</v>
       </c>
       <c r="M20">
-        <v>8.094491987715557</v>
+        <v>14.24936324844902</v>
       </c>
       <c r="N20">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O20">
         <v>24</v>
@@ -1515,10 +1515,10 @@
         <v>138</v>
       </c>
       <c r="Q20">
-        <v>0.5366114874410179</v>
+        <v>0.5968372371680832</v>
       </c>
       <c r="R20">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1526,31 +1526,31 @@
         <v>37</v>
       </c>
       <c r="B21">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C21">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D21">
-        <v>7.597620628607769</v>
+        <v>13.68758046716085</v>
       </c>
       <c r="E21">
-        <v>7.741752537348576</v>
+        <v>13.83751062833597</v>
       </c>
       <c r="F21">
-        <v>7.633695145481023</v>
+        <v>13.76105381782436</v>
       </c>
       <c r="G21">
-        <v>7.633695145481023</v>
+        <v>13.76105381782436</v>
       </c>
       <c r="I21">
-        <v>7.706144975289088</v>
+        <v>13.84876244867672</v>
       </c>
       <c r="P21" t="s">
         <v>139</v>
       </c>
       <c r="Q21">
-        <v>0.2761449752890881</v>
+        <v>0.3287624486767182</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1558,31 +1558,31 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C22">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D22">
-        <v>7.630855242867926</v>
+        <v>13.7207735263078</v>
       </c>
       <c r="E22">
-        <v>7.755795554146607</v>
+        <v>13.82683615401728</v>
       </c>
       <c r="F22">
-        <v>7.693116955447377</v>
+        <v>13.78713270387898</v>
       </c>
       <c r="G22">
-        <v>7.693116955447377</v>
+        <v>13.78713270387898</v>
       </c>
       <c r="I22">
-        <v>7.795195307305783</v>
+        <v>13.88455339400324</v>
       </c>
       <c r="P22" t="s">
         <v>139</v>
       </c>
       <c r="Q22">
-        <v>0.3651953073057834</v>
+        <v>0.3645533940032397</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1590,10 +1590,10 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>7.755795554146607</v>
+        <v>13.83751062833597</v>
       </c>
       <c r="H23">
-        <v>7.806497063758869</v>
+        <v>13.88561406781407</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1602,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.806497063758869</v>
+        <v>13.88561406781407</v>
       </c>
       <c r="M23">
-        <v>8.127983944130369</v>
+        <v>14.28295644684918</v>
       </c>
       <c r="N23">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O23">
         <v>24</v>
@@ -1617,10 +1617,10 @@
         <v>138</v>
       </c>
       <c r="Q23">
-        <v>0.5225684706429874</v>
+        <v>0.5959460066969182</v>
       </c>
       <c r="R23">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1628,10 +1628,10 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>7.754598015767466</v>
+        <v>13.82683615401728</v>
       </c>
       <c r="H24">
-        <v>7.803087747182573</v>
+        <v>13.89987316497926</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1640,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.803087747182573</v>
+        <v>13.89987316497926</v>
       </c>
       <c r="M24">
-        <v>8.127863836605892</v>
+        <v>14.31642107768983</v>
       </c>
       <c r="N24">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O24">
         <v>24</v>
@@ -1655,10 +1655,10 @@
         <v>138</v>
       </c>
       <c r="Q24">
-        <v>0.5237660090221281</v>
+        <v>0.606620481015602</v>
       </c>
       <c r="R24">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1666,31 +1666,31 @@
         <v>41</v>
       </c>
       <c r="B25">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C25">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D25">
-        <v>7.631131739652172</v>
+        <v>13.72109381032342</v>
       </c>
       <c r="E25">
-        <v>7.754598015767466</v>
+        <v>13.82064146113546</v>
       </c>
       <c r="F25">
-        <v>7.699915063021322</v>
+        <v>13.72724531429141</v>
       </c>
       <c r="G25">
-        <v>7.699915063021322</v>
+        <v>13.72724531429141</v>
       </c>
       <c r="I25">
-        <v>7.78124060687562</v>
+        <v>13.82457778619137</v>
       </c>
       <c r="P25" t="s">
         <v>139</v>
       </c>
       <c r="Q25">
-        <v>0.3512406068756206</v>
+        <v>0.3045777861913734</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1698,31 +1698,31 @@
         <v>42</v>
       </c>
       <c r="B26">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C26">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D26">
-        <v>7.664450495566353</v>
+        <v>13.75432241517212</v>
       </c>
       <c r="E26">
-        <v>7.766411973940256</v>
+        <v>13.88874984638888</v>
       </c>
       <c r="F26">
-        <v>7.70015186594484</v>
+        <v>13.81708127173928</v>
       </c>
       <c r="G26">
-        <v>7.70015186594484</v>
+        <v>13.81708127173928</v>
       </c>
       <c r="I26">
-        <v>7.791139732182441</v>
+        <v>13.89152804133803</v>
       </c>
       <c r="P26" t="s">
         <v>139</v>
       </c>
       <c r="Q26">
-        <v>0.3611397321824414</v>
+        <v>0.3715280413380349</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1730,10 +1730,10 @@
         <v>43</v>
       </c>
       <c r="F27">
-        <v>7.766411973940256</v>
+        <v>13.8724945355507</v>
       </c>
       <c r="H27">
-        <v>7.816451695615528</v>
+        <v>13.89515078983904</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>7.816451695615528</v>
+        <v>13.89515078983904</v>
       </c>
       <c r="M27">
-        <v>8.161535227303784</v>
+        <v>14.28307655437366</v>
       </c>
       <c r="N27">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O27">
         <v>24</v>
@@ -1757,10 +1757,10 @@
         <v>138</v>
       </c>
       <c r="Q27">
-        <v>0.511952050849338</v>
+        <v>0.5609620994821878</v>
       </c>
       <c r="R27">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -1768,31 +1768,31 @@
         <v>44</v>
       </c>
       <c r="B28">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C28">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D28">
-        <v>7.66455248350795</v>
+        <v>13.75443606039117</v>
       </c>
       <c r="E28">
-        <v>7.818831355828771</v>
+        <v>13.8724945355507</v>
       </c>
       <c r="F28">
-        <v>7.701404460983301</v>
+        <v>13.7747065294063</v>
       </c>
       <c r="G28">
-        <v>7.701404460983301</v>
+        <v>13.7747065294063</v>
       </c>
       <c r="I28">
-        <v>7.803640778960788</v>
+        <v>13.88175756762716</v>
       </c>
       <c r="P28" t="s">
         <v>139</v>
       </c>
       <c r="Q28">
-        <v>0.3736407789607883</v>
+        <v>0.3617575676271567</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -1800,10 +1800,10 @@
         <v>45</v>
       </c>
       <c r="F29">
-        <v>7.818831355828771</v>
+        <v>13.88874984638888</v>
       </c>
       <c r="H29">
-        <v>7.888330021841138</v>
+        <v>13.94706683987658</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>7.888330021841138</v>
+        <v>13.94706683987658</v>
       </c>
       <c r="M29">
-        <v>8.228246364060977</v>
+        <v>14.31662783754708</v>
       </c>
       <c r="N29">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O29">
         <v>24</v>
@@ -1827,10 +1827,10 @@
         <v>138</v>
       </c>
       <c r="Q29">
-        <v>0.459532668960823</v>
+        <v>0.5447067886440102</v>
       </c>
       <c r="R29">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -1838,10 +1838,10 @@
         <v>46</v>
       </c>
       <c r="F30">
-        <v>7.782914355117629</v>
+        <v>13.88309970166804</v>
       </c>
       <c r="H30">
-        <v>7.810381017546332</v>
+        <v>13.96303740243329</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1850,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>7.810381017546332</v>
+        <v>13.96303740243329</v>
       </c>
       <c r="M30">
-        <v>8.161328467446534</v>
+        <v>14.34997871574476</v>
       </c>
       <c r="N30">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O30">
         <v>24</v>
@@ -1865,10 +1865,10 @@
         <v>138</v>
       </c>
       <c r="Q30">
-        <v>0.4954496696719657</v>
+        <v>0.550356933364851</v>
       </c>
       <c r="R30">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -1876,31 +1876,31 @@
         <v>47</v>
       </c>
       <c r="B31">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C31">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D31">
-        <v>7.698033224145131</v>
+        <v>13.7877287322856</v>
       </c>
       <c r="E31">
-        <v>7.851707161212574</v>
+        <v>13.96959534255521</v>
       </c>
       <c r="F31">
-        <v>7.775962808410759</v>
+        <v>13.85114939583645</v>
       </c>
       <c r="G31">
-        <v>7.775962808410759</v>
+        <v>13.85114939583645</v>
       </c>
       <c r="I31">
-        <v>7.82971182221475</v>
+        <v>13.95455505319725</v>
       </c>
       <c r="P31" t="s">
         <v>139</v>
       </c>
       <c r="Q31">
-        <v>0.3997118222147504</v>
+        <v>0.4345550531972489</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -1908,31 +1908,31 @@
         <v>48</v>
       </c>
       <c r="B32">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C32">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D32">
-        <v>7.697946739274382</v>
+        <v>13.78801878896995</v>
       </c>
       <c r="E32">
-        <v>7.861584433219846</v>
+        <v>13.88309970166804</v>
       </c>
       <c r="F32">
-        <v>7.755001938827089</v>
+        <v>13.8125347954511</v>
       </c>
       <c r="G32">
-        <v>7.755001938827089</v>
+        <v>13.8125347954511</v>
       </c>
       <c r="I32">
-        <v>7.819495812293563</v>
+        <v>13.89725605771717</v>
       </c>
       <c r="P32" t="s">
         <v>139</v>
       </c>
       <c r="Q32">
-        <v>0.3894958122935632</v>
+        <v>0.3772560577171706</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -1940,10 +1940,10 @@
         <v>49</v>
       </c>
       <c r="F33">
-        <v>7.861584433219846</v>
+        <v>13.95853218489376</v>
       </c>
       <c r="H33">
-        <v>7.877918978173248</v>
+        <v>14.03839194085008</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>7.877918978173248</v>
+        <v>14.03839194085008</v>
       </c>
       <c r="M33">
-        <v>8.194921452279996</v>
+        <v>14.41678996836622</v>
       </c>
       <c r="N33">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O33">
         <v>24</v>
@@ -1967,10 +1967,10 @@
         <v>138</v>
       </c>
       <c r="Q33">
-        <v>0.4167795915697479</v>
+        <v>0.474924450139131</v>
       </c>
       <c r="R33">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -1978,31 +1978,31 @@
         <v>50</v>
       </c>
       <c r="B34">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C34">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D34">
-        <v>7.731297719192757</v>
+        <v>13.82133180961272</v>
       </c>
       <c r="E34">
-        <v>7.827286077706053</v>
+        <v>13.98068076865219</v>
       </c>
       <c r="F34">
-        <v>7.749204959225604</v>
+        <v>13.88352070445088</v>
       </c>
       <c r="G34">
-        <v>7.749204959225604</v>
+        <v>13.88352070445088</v>
       </c>
       <c r="I34">
-        <v>7.855605171154988</v>
+        <v>13.97769838651667</v>
       </c>
       <c r="P34" t="s">
         <v>139</v>
       </c>
       <c r="Q34">
-        <v>0.425605171154988</v>
+        <v>0.4576983865166753</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2010,10 +2010,10 @@
         <v>51</v>
       </c>
       <c r="F35">
-        <v>7.851707161212574</v>
+        <v>13.96959534255521</v>
       </c>
       <c r="H35">
-        <v>7.91178027536835</v>
+        <v>13.99516975918588</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2022,13 +2022,13 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>7.91178027536835</v>
+        <v>13.99516975918588</v>
       </c>
       <c r="M35">
-        <v>8.261697358122927</v>
+        <v>14.38333897430427</v>
       </c>
       <c r="N35">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O35">
         <v>24</v>
@@ -2037,10 +2037,10 @@
         <v>138</v>
       </c>
       <c r="Q35">
-        <v>0.42665686357702</v>
+        <v>0.463861292477679</v>
       </c>
       <c r="R35">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2048,31 +2048,31 @@
         <v>52</v>
       </c>
       <c r="B36">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C36">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D36">
-        <v>7.731643257861865</v>
+        <v>13.82135531147605</v>
       </c>
       <c r="E36">
-        <v>7.782914355117629</v>
+        <v>13.95853218489376</v>
       </c>
       <c r="F36">
-        <v>7.743375414393625</v>
+        <v>13.87483190612619</v>
       </c>
       <c r="G36">
-        <v>7.743375414393625</v>
+        <v>13.87483190612619</v>
       </c>
       <c r="I36">
-        <v>7.810311948449654</v>
+        <v>13.92452656719632</v>
       </c>
       <c r="P36" t="s">
         <v>139</v>
       </c>
       <c r="Q36">
-        <v>0.3803119484496547</v>
+        <v>0.4045265671963225</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2080,10 +2080,10 @@
         <v>53</v>
       </c>
       <c r="F37">
-        <v>7.827286077706053</v>
+        <v>13.98068076865219</v>
       </c>
       <c r="H37">
-        <v>7.837216807367999</v>
+        <v>14.05734880889951</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>7.837216807367999</v>
+        <v>14.05734880889951</v>
       </c>
       <c r="M37">
-        <v>8.194886105501469</v>
+        <v>14.41693019470397</v>
       </c>
       <c r="N37">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O37">
         <v>24</v>
@@ -2107,10 +2107,10 @@
         <v>138</v>
       </c>
       <c r="Q37">
-        <v>0.4510779470835411</v>
+        <v>0.4527758663806996</v>
       </c>
       <c r="R37">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2118,31 +2118,31 @@
         <v>54</v>
       </c>
       <c r="B38">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C38">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D38">
-        <v>7.764662039240979</v>
+        <v>13.85473830657126</v>
       </c>
       <c r="E38">
-        <v>7.853424728970174</v>
+        <v>13.9695082370567</v>
       </c>
       <c r="F38">
-        <v>7.806037219042564</v>
+        <v>13.90542880264804</v>
       </c>
       <c r="G38">
-        <v>7.806037219042564</v>
+        <v>13.90542880264804</v>
       </c>
       <c r="I38">
-        <v>7.878269843910368</v>
+        <v>13.98725903365872</v>
       </c>
       <c r="P38" t="s">
         <v>139</v>
       </c>
       <c r="Q38">
-        <v>0.4482698439103681</v>
+        <v>0.4672590336587188</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2150,10 +2150,10 @@
         <v>55</v>
       </c>
       <c r="F39">
-        <v>7.853424728970174</v>
+        <v>13.9695082370567</v>
       </c>
       <c r="H39">
-        <v>7.898666117152333</v>
+        <v>13.98498049831559</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>7.898666117152333</v>
+        <v>13.98498049831559</v>
       </c>
       <c r="M39">
-        <v>8.228374522052887</v>
+        <v>14.35001406252329</v>
       </c>
       <c r="N39">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O39">
         <v>24</v>
@@ -2177,10 +2177,10 @@
         <v>138</v>
       </c>
       <c r="Q39">
-        <v>0.4249392958194198</v>
+        <v>0.4639483979761874</v>
       </c>
       <c r="R39">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2188,31 +2188,31 @@
         <v>56</v>
       </c>
       <c r="B40">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="C40">
-        <v>7.43</v>
+        <v>13.52</v>
       </c>
       <c r="D40">
-        <v>7.765102625558068</v>
+        <v>13.85473827033175</v>
       </c>
       <c r="E40">
-        <v>7.896340275307082</v>
+        <v>13.99081005500647</v>
       </c>
       <c r="F40">
-        <v>7.827127332441302</v>
+        <v>13.89757894347909</v>
       </c>
       <c r="G40">
-        <v>7.827127332441302</v>
+        <v>13.89757894347909</v>
       </c>
       <c r="I40">
-        <v>7.920151790701355</v>
+        <v>13.99612739990205</v>
       </c>
       <c r="P40" t="s">
         <v>139</v>
       </c>
       <c r="Q40">
-        <v>0.4901517907013551</v>
+        <v>0.476127399902051</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2220,10 +2220,10 @@
         <v>57</v>
       </c>
       <c r="F41">
-        <v>7.896340275307082</v>
+        <v>13.99081005500647</v>
       </c>
       <c r="H41">
-        <v>7.915852648400501</v>
+        <v>14.02513813962133</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>7.915852648400501</v>
+        <v>14.02513813962133</v>
       </c>
       <c r="M41">
-        <v>8.261837584460675</v>
+        <v>14.38346713229618</v>
       </c>
       <c r="N41">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="O41">
         <v>24</v>
@@ -2247,10 +2247,10 @@
         <v>138</v>
       </c>
       <c r="Q41">
-        <v>0.3820237494825118</v>
+        <v>0.4426465800264197</v>
       </c>
       <c r="R41">
-        <v>7.560188231879035</v>
+        <v>13.64284455936509</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -2258,25 +2258,25 @@
         <v>58</v>
       </c>
       <c r="F42">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
       <c r="H42">
-        <v>30.10136229699579</v>
+        <v>38.56418892527848</v>
       </c>
       <c r="J42">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K42">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L42">
-        <v>30.10136229699579</v>
+        <v>38.56418892527848</v>
       </c>
       <c r="M42">
-        <v>30.57108987422529</v>
+        <v>38.97242482261614</v>
       </c>
       <c r="N42">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O42">
         <v>48</v>
@@ -2285,10 +2285,10 @@
         <v>138</v>
       </c>
       <c r="Q42">
-        <v>0.7962142398365835</v>
+        <v>0.7607112519201422</v>
       </c>
       <c r="R42">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2296,31 +2296,31 @@
         <v>59</v>
       </c>
       <c r="B43">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C43">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D43">
-        <v>30.00360249896035</v>
+        <v>38.42360249896036</v>
       </c>
       <c r="E43">
-        <v>30.09673163060924</v>
+        <v>38.52944504518951</v>
       </c>
       <c r="F43">
-        <v>30.02954801891706</v>
+        <v>38.44301944600737</v>
       </c>
       <c r="G43">
-        <v>30.02954801891706</v>
+        <v>38.44301944600737</v>
       </c>
       <c r="I43">
-        <v>30.11924956452801</v>
+        <v>38.55473295154944</v>
       </c>
       <c r="P43" t="s">
         <v>139</v>
       </c>
       <c r="Q43">
-        <v>0.149249564528013</v>
+        <v>0.1647329515494391</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -2328,25 +2328,25 @@
         <v>60</v>
       </c>
       <c r="F44">
-        <v>30.09673163060924</v>
+        <v>38.57759164680326</v>
       </c>
       <c r="H44">
-        <v>30.17418237662488</v>
+        <v>38.61903539509568</v>
       </c>
       <c r="J44">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K44">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L44">
-        <v>30.17418237662488</v>
+        <v>38.61903539509568</v>
       </c>
       <c r="M44">
-        <v>30.60447685472205</v>
+        <v>38.97226711427955</v>
       </c>
       <c r="N44">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O44">
         <v>48</v>
@@ -2355,10 +2355,10 @@
         <v>138</v>
       </c>
       <c r="Q44">
-        <v>0.7920897181095548</v>
+        <v>0.7125646503063905</v>
       </c>
       <c r="R44">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -2366,31 +2366,31 @@
         <v>61</v>
       </c>
       <c r="B45">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C45">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D45">
-        <v>30.00359065749528</v>
+        <v>38.42359065749528</v>
       </c>
       <c r="E45">
-        <v>30.09260710888221</v>
+        <v>38.57759164680326</v>
       </c>
       <c r="F45">
-        <v>30.04000599001988</v>
+        <v>38.47625100126517</v>
       </c>
       <c r="G45">
-        <v>30.04000599001988</v>
+        <v>38.47625100126517</v>
       </c>
       <c r="I45">
-        <v>30.09910459071506</v>
+        <v>38.5585829730099</v>
       </c>
       <c r="P45" t="s">
         <v>139</v>
       </c>
       <c r="Q45">
-        <v>0.1291045907150661</v>
+        <v>0.1685829730098973</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -2398,25 +2398,25 @@
         <v>62</v>
       </c>
       <c r="F46">
-        <v>30.14792590642498</v>
+        <v>38.58714258866861</v>
       </c>
       <c r="H46">
-        <v>30.16916466007037</v>
+        <v>38.64616986746106</v>
       </c>
       <c r="J46">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K46">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L46">
-        <v>30.16916466007037</v>
+        <v>38.64616986746106</v>
       </c>
       <c r="M46">
-        <v>30.60427207267611</v>
+        <v>39.0058118031129</v>
       </c>
       <c r="N46">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O46">
         <v>48</v>
@@ -2425,10 +2425,10 @@
         <v>138</v>
       </c>
       <c r="Q46">
-        <v>0.7408954422938194</v>
+        <v>0.7030137084410413</v>
       </c>
       <c r="R46">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -2436,31 +2436,31 @@
         <v>63</v>
       </c>
       <c r="B47">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C47">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D47">
-        <v>30.03715973964373</v>
+        <v>38.45715973964373</v>
       </c>
       <c r="E47">
-        <v>30.18836121755619</v>
+        <v>38.56882973963384</v>
       </c>
       <c r="F47">
-        <v>30.10003669943636</v>
+        <v>38.5041904922769</v>
       </c>
       <c r="G47">
-        <v>30.10003669943636</v>
+        <v>38.5041904922769</v>
       </c>
       <c r="I47">
-        <v>30.18634950615881</v>
+        <v>38.5907135584137</v>
       </c>
       <c r="P47" t="s">
         <v>139</v>
       </c>
       <c r="Q47">
-        <v>0.2163495061588065</v>
+        <v>0.2007135584137032</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -2468,25 +2468,25 @@
         <v>64</v>
       </c>
       <c r="F48">
-        <v>30.17519427077428</v>
+        <v>38.56882973963384</v>
       </c>
       <c r="H48">
-        <v>30.23017016241648</v>
+        <v>38.6280974131684</v>
       </c>
       <c r="J48">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K48">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L48">
-        <v>30.23017016241648</v>
+        <v>38.6280974131684</v>
       </c>
       <c r="M48">
-        <v>30.67129850352479</v>
+        <v>39.00560702106696</v>
       </c>
       <c r="N48">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O48">
         <v>48</v>
@@ -2495,10 +2495,10 @@
         <v>138</v>
       </c>
       <c r="Q48">
-        <v>0.713627077944512</v>
+        <v>0.7213265574758125</v>
       </c>
       <c r="R48">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -2506,31 +2506,31 @@
         <v>65</v>
       </c>
       <c r="B49">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C49">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D49">
-        <v>30.03707073260631</v>
+        <v>38.45707073260631</v>
       </c>
       <c r="E49">
-        <v>30.14792590642498</v>
+        <v>38.58714258866861</v>
       </c>
       <c r="F49">
-        <v>30.06369565742307</v>
+        <v>38.46849814747854</v>
       </c>
       <c r="G49">
-        <v>30.06369565742307</v>
+        <v>38.46849814747854</v>
       </c>
       <c r="I49">
-        <v>30.16795518989324</v>
+        <v>38.56861704586441</v>
       </c>
       <c r="P49" t="s">
         <v>139</v>
       </c>
       <c r="Q49">
-        <v>0.1979551898932392</v>
+        <v>0.1786170458644065</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -2538,25 +2538,25 @@
         <v>66</v>
       </c>
       <c r="F50">
-        <v>30.14761479061977</v>
+        <v>38.64501796389606</v>
       </c>
       <c r="H50">
-        <v>30.15649356651155</v>
+        <v>38.69172666710132</v>
       </c>
       <c r="J50">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K50">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L50">
-        <v>30.15649356651155</v>
+        <v>38.69172666710132</v>
       </c>
       <c r="M50">
-        <v>30.5709321658887</v>
+        <v>39.07263345191564</v>
       </c>
       <c r="N50">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O50">
         <v>48</v>
@@ -2565,10 +2565,10 @@
         <v>138</v>
       </c>
       <c r="Q50">
-        <v>0.7412065580990266</v>
+        <v>0.6451383332135947</v>
       </c>
       <c r="R50">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -2576,31 +2576,31 @@
         <v>67</v>
       </c>
       <c r="B51">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C51">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D51">
-        <v>30.07042035355075</v>
+        <v>38.49042035355075</v>
       </c>
       <c r="E51">
-        <v>30.14761479061977</v>
+        <v>38.64501796389606</v>
       </c>
       <c r="F51">
-        <v>30.07826636555637</v>
+        <v>38.52739441727277</v>
       </c>
       <c r="G51">
-        <v>30.07826636555637</v>
+        <v>38.52739441727277</v>
       </c>
       <c r="I51">
-        <v>30.16742662722905</v>
+        <v>38.62666666713932</v>
       </c>
       <c r="P51" t="s">
         <v>139</v>
       </c>
       <c r="Q51">
-        <v>0.1974266272290492</v>
+        <v>0.2366666671393176</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -2608,31 +2608,31 @@
         <v>68</v>
       </c>
       <c r="B52">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C52">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D52">
-        <v>30.07076676987811</v>
+        <v>38.49076676987811</v>
       </c>
       <c r="E52">
-        <v>30.17519427077428</v>
+        <v>38.61702622075598</v>
       </c>
       <c r="F52">
-        <v>30.0850220218833</v>
+        <v>38.53284036493794</v>
       </c>
       <c r="G52">
-        <v>30.0850220218833</v>
+        <v>38.53284036493794</v>
       </c>
       <c r="I52">
-        <v>30.15602991346305</v>
+        <v>38.62778284390966</v>
       </c>
       <c r="P52" t="s">
         <v>139</v>
       </c>
       <c r="Q52">
-        <v>0.1860299134630559</v>
+        <v>0.2377828439096561</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -2640,25 +2640,25 @@
         <v>69</v>
       </c>
       <c r="F53">
-        <v>30.18836121755619</v>
+        <v>38.61702622075598</v>
       </c>
       <c r="H53">
-        <v>30.20977508472631</v>
+        <v>38.65820441023421</v>
       </c>
       <c r="J53">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K53">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L53">
-        <v>30.20977508472631</v>
+        <v>38.65820441023421</v>
       </c>
       <c r="M53">
-        <v>30.63769658988478</v>
+        <v>39.03903153827563</v>
       </c>
       <c r="N53">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O53">
         <v>48</v>
@@ -2667,10 +2667,10 @@
         <v>138</v>
       </c>
       <c r="Q53">
-        <v>0.7004601311626075</v>
+        <v>0.6731300763536723</v>
       </c>
       <c r="R53">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -2678,31 +2678,31 @@
         <v>70</v>
       </c>
       <c r="B54">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C54">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D54">
-        <v>30.10395324473834</v>
+        <v>38.52390806697392</v>
       </c>
       <c r="E54">
-        <v>30.18236753429012</v>
+        <v>38.63698980211335</v>
       </c>
       <c r="F54">
-        <v>30.13107864063838</v>
+        <v>38.55491821514985</v>
       </c>
       <c r="G54">
-        <v>30.13107864063838</v>
+        <v>38.55491821514985</v>
       </c>
       <c r="I54">
-        <v>30.21364241199483</v>
+        <v>38.6235712908661</v>
       </c>
       <c r="P54" t="s">
         <v>139</v>
       </c>
       <c r="Q54">
-        <v>0.2436424119948342</v>
+        <v>0.2335712908660952</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -2710,25 +2710,25 @@
         <v>71</v>
       </c>
       <c r="F55">
-        <v>30.18236753429012</v>
+        <v>38.63100966798507</v>
       </c>
       <c r="H55">
-        <v>30.22018012453676</v>
+        <v>38.6697516190476</v>
       </c>
       <c r="J55">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K55">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L55">
-        <v>30.22018012453676</v>
+        <v>38.6697516190476</v>
       </c>
       <c r="M55">
-        <v>30.63805028609483</v>
+        <v>39.03938523448569</v>
       </c>
       <c r="N55">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O55">
         <v>48</v>
@@ -2737,10 +2737,10 @@
         <v>138</v>
       </c>
       <c r="Q55">
-        <v>0.7064538144286736</v>
+        <v>0.6591466291245851</v>
       </c>
       <c r="R55">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -2748,31 +2748,31 @@
         <v>72</v>
       </c>
       <c r="B56">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C56">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D56">
-        <v>30.10418252205186</v>
+        <v>38.52414310232958</v>
       </c>
       <c r="E56">
-        <v>30.25718259182728</v>
+        <v>38.63100966798507</v>
       </c>
       <c r="F56">
-        <v>30.18169715788618</v>
+        <v>38.5305853511833</v>
       </c>
       <c r="G56">
-        <v>30.18169715788618</v>
+        <v>38.5305853511833</v>
       </c>
       <c r="I56">
-        <v>30.26033909400356</v>
+        <v>38.62885620009</v>
       </c>
       <c r="P56" t="s">
         <v>139</v>
       </c>
       <c r="Q56">
-        <v>0.2903390940035564</v>
+        <v>0.2388562000899981</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -2780,25 +2780,25 @@
         <v>73</v>
       </c>
       <c r="F57">
-        <v>30.25718259182728</v>
+        <v>38.63698980211335</v>
       </c>
       <c r="H57">
-        <v>30.32656973893915</v>
+        <v>38.69527087815774</v>
       </c>
       <c r="J57">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K57">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L57">
-        <v>30.32656973893915</v>
+        <v>38.69527087815774</v>
       </c>
       <c r="M57">
-        <v>30.73838779140305</v>
+        <v>39.07279610253922</v>
       </c>
       <c r="N57">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O57">
         <v>48</v>
@@ -2807,10 +2807,10 @@
         <v>138</v>
       </c>
       <c r="Q57">
-        <v>0.6316387568915189</v>
+        <v>0.6531664949963059</v>
       </c>
       <c r="R57">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -2818,31 +2818,31 @@
         <v>74</v>
       </c>
       <c r="B58">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C58">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D58">
-        <v>30.13730883125646</v>
+        <v>38.55725727954972</v>
       </c>
       <c r="E58">
-        <v>30.32097394036213</v>
+        <v>38.67783175452845</v>
       </c>
       <c r="F58">
-        <v>30.18359670195694</v>
+        <v>38.6207703232509</v>
       </c>
       <c r="G58">
-        <v>30.18359670195694</v>
+        <v>38.6207703232509</v>
       </c>
       <c r="I58">
-        <v>30.3035969527974</v>
+        <v>38.68683457281991</v>
       </c>
       <c r="P58" t="s">
         <v>139</v>
       </c>
       <c r="Q58">
-        <v>0.3335969527974001</v>
+        <v>0.2968345728199111</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -2850,25 +2850,25 @@
         <v>75</v>
       </c>
       <c r="F59">
-        <v>30.23440801727395</v>
+        <v>38.65209980493401</v>
       </c>
       <c r="H59">
-        <v>30.27212073715601</v>
+        <v>38.70643888834239</v>
       </c>
       <c r="J59">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K59">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L59">
-        <v>30.27212073715601</v>
+        <v>38.70643888834239</v>
       </c>
       <c r="M59">
-        <v>30.67146115414837</v>
+        <v>39.10614497462081</v>
       </c>
       <c r="N59">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O59">
         <v>48</v>
@@ -2877,10 +2877,10 @@
         <v>138</v>
       </c>
       <c r="Q59">
-        <v>0.6544133314448466</v>
+        <v>0.6380564921756431</v>
       </c>
       <c r="R59">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -2888,31 +2888,31 @@
         <v>76</v>
       </c>
       <c r="B60">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C60">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D60">
-        <v>30.13768114291477</v>
+        <v>38.55761611632484</v>
       </c>
       <c r="E60">
-        <v>30.23440801727395</v>
+        <v>38.65209980493401</v>
       </c>
       <c r="F60">
-        <v>30.17054691619763</v>
+        <v>38.56624608483867</v>
       </c>
       <c r="G60">
-        <v>30.17054691619763</v>
+        <v>38.56624608483867</v>
       </c>
       <c r="I60">
-        <v>30.26552216789462</v>
+        <v>38.6503015138054</v>
       </c>
       <c r="P60" t="s">
         <v>139</v>
       </c>
       <c r="Q60">
-        <v>0.2955221678946174</v>
+        <v>0.2603015138054019</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -2920,25 +2920,25 @@
         <v>77</v>
       </c>
       <c r="F61">
-        <v>30.25150307825749</v>
+        <v>38.67783175452845</v>
       </c>
       <c r="H61">
-        <v>30.3229450338637</v>
+        <v>38.71469701862076</v>
       </c>
       <c r="J61">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K61">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L61">
-        <v>30.3229450338637</v>
+        <v>38.71469701862076</v>
       </c>
       <c r="M61">
-        <v>30.73841590114307</v>
+        <v>39.10624045764599</v>
       </c>
       <c r="N61">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O61">
         <v>48</v>
@@ -2947,10 +2947,10 @@
         <v>138</v>
       </c>
       <c r="Q61">
-        <v>0.6373182704613107</v>
+        <v>0.6123245425812058</v>
       </c>
       <c r="R61">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -2958,31 +2958,31 @@
         <v>78</v>
       </c>
       <c r="B62">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C62">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D62">
-        <v>30.17075861595516</v>
+        <v>38.59065900603522</v>
       </c>
       <c r="E62">
-        <v>30.26371590165664</v>
+        <v>38.742784713916</v>
       </c>
       <c r="F62">
-        <v>30.22217895683061</v>
+        <v>38.63554950227248</v>
       </c>
       <c r="G62">
-        <v>30.22217895683061</v>
+        <v>38.63554950227248</v>
       </c>
       <c r="I62">
-        <v>30.30265825100991</v>
+        <v>38.73671809864869</v>
       </c>
       <c r="P62" t="s">
         <v>139</v>
       </c>
       <c r="Q62">
-        <v>0.3326582510099101</v>
+        <v>0.3467180986486866</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -2990,25 +2990,25 @@
         <v>79</v>
       </c>
       <c r="F63">
-        <v>30.25884173741427</v>
+        <v>38.742784713916</v>
       </c>
       <c r="H63">
-        <v>30.29348357573729</v>
+        <v>38.80456541388069</v>
       </c>
       <c r="J63">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K63">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L63">
-        <v>30.29348357573729</v>
+        <v>38.80456541388069</v>
       </c>
       <c r="M63">
-        <v>30.70490550925513</v>
+        <v>39.17331697233288</v>
       </c>
       <c r="N63">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O63">
         <v>48</v>
@@ -3017,10 +3017,10 @@
         <v>138</v>
       </c>
       <c r="Q63">
-        <v>0.629979611304524</v>
+        <v>0.5473715831936588</v>
       </c>
       <c r="R63">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -3028,31 +3028,31 @@
         <v>80</v>
       </c>
       <c r="B64">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C64">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D64">
-        <v>30.17115969366908</v>
+        <v>38.5911215000777</v>
       </c>
       <c r="E64">
-        <v>30.25884173741427</v>
+        <v>38.72388517077787</v>
       </c>
       <c r="F64">
-        <v>30.20684281257777</v>
+        <v>38.63264357178089</v>
       </c>
       <c r="G64">
-        <v>30.20684281257777</v>
+        <v>38.63264357178089</v>
       </c>
       <c r="I64">
-        <v>30.30262440301903</v>
+        <v>38.72560349254141</v>
       </c>
       <c r="P64" t="s">
         <v>139</v>
       </c>
       <c r="Q64">
-        <v>0.3326244030190324</v>
+        <v>0.3356034925414093</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -3060,25 +3060,25 @@
         <v>81</v>
       </c>
       <c r="F65">
-        <v>30.32097394036213</v>
+        <v>38.72388517077787</v>
       </c>
       <c r="H65">
-        <v>30.36185086253408</v>
+        <v>38.77383658692749</v>
       </c>
       <c r="J65">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K65">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L65">
-        <v>30.36185086253408</v>
+        <v>38.77383658692749</v>
       </c>
       <c r="M65">
-        <v>30.77178127385192</v>
+        <v>39.13975084953393</v>
       </c>
       <c r="N65">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O65">
         <v>48</v>
@@ -3087,10 +3087,10 @@
         <v>138</v>
       </c>
       <c r="Q65">
-        <v>0.5678474083566698</v>
+        <v>0.5662711263317846</v>
       </c>
       <c r="R65">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -3098,31 +3098,31 @@
         <v>82</v>
       </c>
       <c r="B66">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C66">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D66">
-        <v>30.20430080053639</v>
+        <v>38.62411964090261</v>
       </c>
       <c r="E66">
-        <v>30.25150307825749</v>
+        <v>38.75352574340921</v>
       </c>
       <c r="F66">
-        <v>30.22294063589896</v>
+        <v>38.64476381753814</v>
       </c>
       <c r="G66">
-        <v>30.22294063589896</v>
+        <v>38.64476381753814</v>
       </c>
       <c r="I66">
-        <v>30.29185486390112</v>
+        <v>38.71819504788127</v>
       </c>
       <c r="P66" t="s">
         <v>139</v>
       </c>
       <c r="Q66">
-        <v>0.3218548639011196</v>
+        <v>0.3281950478812732</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -3130,25 +3130,25 @@
         <v>83</v>
       </c>
       <c r="F67">
-        <v>30.26371590165664</v>
+        <v>38.75352574340921</v>
       </c>
       <c r="H67">
-        <v>30.28131233526313</v>
+        <v>38.81342563539867</v>
       </c>
       <c r="J67">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K67">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L67">
-        <v>30.28131233526313</v>
+        <v>38.81342563539867</v>
       </c>
       <c r="M67">
-        <v>30.70481002622996</v>
+        <v>39.17311622224278</v>
       </c>
       <c r="N67">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O67">
         <v>48</v>
@@ -3157,10 +3157,10 @@
         <v>138</v>
       </c>
       <c r="Q67">
-        <v>0.6251054470621575</v>
+        <v>0.5366305537004408</v>
       </c>
       <c r="R67">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -3168,31 +3168,31 @@
         <v>84</v>
       </c>
       <c r="B68">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C68">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D68">
-        <v>30.20462032853647</v>
+        <v>38.62473152686878</v>
       </c>
       <c r="E68">
-        <v>30.34073708355293</v>
+        <v>38.7831199338688</v>
       </c>
       <c r="F68">
-        <v>30.26038924888963</v>
+        <v>38.68153190309798</v>
       </c>
       <c r="G68">
-        <v>30.26038924888963</v>
+        <v>38.68153190309798</v>
       </c>
       <c r="I68">
-        <v>30.35493154592769</v>
+        <v>38.77595615347592</v>
       </c>
       <c r="P68" t="s">
         <v>139</v>
       </c>
       <c r="Q68">
-        <v>0.3849315459276923</v>
+        <v>0.3859561534759237</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -3200,25 +3200,25 @@
         <v>85</v>
       </c>
       <c r="F69">
-        <v>30.34073708355293</v>
+        <v>38.7831199338688</v>
       </c>
       <c r="H69">
-        <v>30.35058594179394</v>
+        <v>38.79047269268986</v>
       </c>
       <c r="J69">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K69">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L69">
-        <v>30.35058594179394</v>
+        <v>38.79047269268986</v>
       </c>
       <c r="M69">
-        <v>30.77198202394202</v>
+        <v>39.1397227397939</v>
       </c>
       <c r="N69">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O69">
         <v>48</v>
@@ -3227,10 +3227,10 @@
         <v>138</v>
       </c>
       <c r="Q69">
-        <v>0.548084265165862</v>
+        <v>0.5070363632408572</v>
       </c>
       <c r="R69">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -3238,31 +3238,31 @@
         <v>86</v>
       </c>
       <c r="B70">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C70">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D70">
-        <v>30.23773678028326</v>
+        <v>38.65769721596997</v>
       </c>
       <c r="E70">
-        <v>30.38965089289118</v>
+        <v>38.81309012827919</v>
       </c>
       <c r="F70">
-        <v>30.30556303728302</v>
+        <v>38.71408296225265</v>
       </c>
       <c r="G70">
-        <v>30.30556303728302</v>
+        <v>38.71408296225265</v>
       </c>
       <c r="I70">
-        <v>30.42384780391724</v>
+        <v>38.81000403031319</v>
       </c>
       <c r="P70" t="s">
         <v>139</v>
       </c>
       <c r="Q70">
-        <v>0.4538478039172453</v>
+        <v>0.4200040303131871</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -3270,25 +3270,25 @@
         <v>87</v>
       </c>
       <c r="F71">
-        <v>30.34585896010272</v>
+        <v>38.78444460923675</v>
       </c>
       <c r="H71">
-        <v>30.39177660346791</v>
+        <v>38.82413660284091</v>
       </c>
       <c r="J71">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K71">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L71">
-        <v>30.39177660346791</v>
+        <v>38.82413660284091</v>
       </c>
       <c r="M71">
-        <v>30.80538416291053</v>
+        <v>39.2067191113014</v>
       </c>
       <c r="N71">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O71">
         <v>48</v>
@@ -3297,10 +3297,10 @@
         <v>138</v>
       </c>
       <c r="Q71">
-        <v>0.5429623886160755</v>
+        <v>0.5057116878729033</v>
       </c>
       <c r="R71">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -3308,31 +3308,31 @@
         <v>88</v>
       </c>
       <c r="B72">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C72">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D72">
-        <v>30.23818525769054</v>
+        <v>38.65810867876665</v>
       </c>
       <c r="E72">
-        <v>30.41495944478552</v>
+        <v>38.78444460923675</v>
       </c>
       <c r="F72">
-        <v>30.31808531306956</v>
+        <v>38.68031324281109</v>
       </c>
       <c r="G72">
-        <v>30.31808531306956</v>
+        <v>38.68031324281109</v>
       </c>
       <c r="I72">
-        <v>30.41508054883961</v>
+        <v>38.77120669863232</v>
       </c>
       <c r="P72" t="s">
         <v>139</v>
       </c>
       <c r="Q72">
-        <v>0.4450805488396128</v>
+        <v>0.3812066986323188</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -3340,25 +3340,25 @@
         <v>89</v>
       </c>
       <c r="F73">
-        <v>30.41495944478552</v>
+        <v>38.81309012827919</v>
       </c>
       <c r="H73">
-        <v>30.48286098620176</v>
+        <v>38.89069836879469</v>
       </c>
       <c r="J73">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K73">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L73">
-        <v>30.48286098620176</v>
+        <v>38.89069836879469</v>
       </c>
       <c r="M73">
-        <v>30.83896566342311</v>
+        <v>39.27348963044299</v>
       </c>
       <c r="N73">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O73">
         <v>48</v>
@@ -3367,10 +3367,10 @@
         <v>138</v>
       </c>
       <c r="Q73">
-        <v>0.4738619039332796</v>
+        <v>0.4770661688304685</v>
       </c>
       <c r="R73">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -3378,31 +3378,31 @@
         <v>90</v>
       </c>
       <c r="B74">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C74">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D74">
-        <v>30.27112666842557</v>
+        <v>38.69118422253688</v>
       </c>
       <c r="E74">
-        <v>30.4151599060293</v>
+        <v>38.79888938801297</v>
       </c>
       <c r="F74">
-        <v>30.31755004106634</v>
+        <v>38.73646832769453</v>
       </c>
       <c r="G74">
-        <v>30.31755004106634</v>
+        <v>38.73646832769453</v>
       </c>
       <c r="I74">
-        <v>30.41448456062556</v>
+        <v>38.81402154889642</v>
       </c>
       <c r="P74" t="s">
         <v>139</v>
       </c>
       <c r="Q74">
-        <v>0.4444845606255576</v>
+        <v>0.4240215488964196</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -3410,25 +3410,25 @@
         <v>91</v>
       </c>
       <c r="F75">
-        <v>30.4151599060293</v>
+        <v>38.83377345601355</v>
       </c>
       <c r="H75">
-        <v>30.4870317490906</v>
+        <v>38.88722339186283</v>
       </c>
       <c r="J75">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K75">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L75">
-        <v>30.4870317490906</v>
+        <v>38.88722339186283</v>
       </c>
       <c r="M75">
-        <v>30.83879123690012</v>
+        <v>39.24012618529098</v>
       </c>
       <c r="N75">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O75">
         <v>48</v>
@@ -3437,10 +3437,10 @@
         <v>138</v>
       </c>
       <c r="Q75">
-        <v>0.4736614426894938</v>
+        <v>0.4563828410961079</v>
       </c>
       <c r="R75">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -3448,31 +3448,31 @@
         <v>92</v>
       </c>
       <c r="B76">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C76">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D76">
-        <v>30.27159191988544</v>
+        <v>38.69161002038527</v>
       </c>
       <c r="E76">
-        <v>30.34585896010272</v>
+        <v>38.83377345601355</v>
       </c>
       <c r="F76">
-        <v>30.29525015283721</v>
+        <v>38.74735131594989</v>
       </c>
       <c r="G76">
-        <v>30.29525015283721</v>
+        <v>38.74735131594989</v>
       </c>
       <c r="I76">
-        <v>30.40107464592447</v>
+        <v>38.82243081447629</v>
       </c>
       <c r="P76" t="s">
         <v>139</v>
       </c>
       <c r="Q76">
-        <v>0.4310746459244754</v>
+        <v>0.4324308144762909</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -3480,25 +3480,25 @@
         <v>93</v>
       </c>
       <c r="F77">
-        <v>30.38965089289118</v>
+        <v>38.79888938801297</v>
       </c>
       <c r="H77">
-        <v>30.42168890302674</v>
+        <v>38.8375007468821</v>
       </c>
       <c r="J77">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K77">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L77">
-        <v>30.42168890302674</v>
+        <v>38.8375007468821</v>
       </c>
       <c r="M77">
-        <v>30.80536495944651</v>
+        <v>39.20669990783737</v>
       </c>
       <c r="N77">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O77">
         <v>48</v>
@@ -3507,10 +3507,10 @@
         <v>138</v>
       </c>
       <c r="Q77">
-        <v>0.4991704558276169</v>
+        <v>0.4912669090966872</v>
       </c>
       <c r="R77">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -3518,25 +3518,25 @@
         <v>94</v>
       </c>
       <c r="F78">
-        <v>30.45968513984223</v>
+        <v>38.80567108413027</v>
       </c>
       <c r="H78">
-        <v>30.53712625426418</v>
+        <v>38.8410601562455</v>
       </c>
       <c r="J78">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K78">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L78">
-        <v>30.53712625426418</v>
+        <v>38.8410601562455</v>
       </c>
       <c r="M78">
-        <v>30.8724197089116</v>
+        <v>39.24030061181397</v>
       </c>
       <c r="N78">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O78">
         <v>48</v>
@@ -3545,10 +3545,10 @@
         <v>138</v>
       </c>
       <c r="Q78">
-        <v>0.4291362088765709</v>
+        <v>0.4844852129793793</v>
       </c>
       <c r="R78">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -3556,31 +3556,31 @@
         <v>95</v>
       </c>
       <c r="B79">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C79">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D79">
-        <v>30.30453276710958</v>
+        <v>38.72473175565439</v>
       </c>
       <c r="E79">
-        <v>30.45901519702024</v>
+        <v>38.87376595861019</v>
       </c>
       <c r="F79">
-        <v>30.36345711948877</v>
+        <v>38.80067574081012</v>
       </c>
       <c r="G79">
-        <v>30.36345711948877</v>
+        <v>38.80067574081012</v>
       </c>
       <c r="I79">
-        <v>30.46201972276682</v>
+        <v>38.9028333729042</v>
       </c>
       <c r="P79" t="s">
         <v>139</v>
       </c>
       <c r="Q79">
-        <v>0.4920197227668197</v>
+        <v>0.5128333729042041</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -3588,31 +3588,31 @@
         <v>96</v>
       </c>
       <c r="B80">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="C80">
-        <v>29.97</v>
+        <v>38.39</v>
       </c>
       <c r="D80">
-        <v>30.30507849778019</v>
+        <v>38.72501611906928</v>
       </c>
       <c r="E80">
-        <v>30.45968513984223</v>
+        <v>38.80567108413027</v>
       </c>
       <c r="F80">
-        <v>30.36404828662436</v>
+        <v>38.76857119650283</v>
       </c>
       <c r="G80">
-        <v>30.36404828662436</v>
+        <v>38.76857119650283</v>
       </c>
       <c r="I80">
-        <v>30.46229674260315</v>
+        <v>38.83742983178768</v>
       </c>
       <c r="P80" t="s">
         <v>139</v>
       </c>
       <c r="Q80">
-        <v>0.4922967426031519</v>
+        <v>0.4474298317876801</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -3620,25 +3620,25 @@
         <v>97</v>
       </c>
       <c r="F81">
-        <v>30.45901519702024</v>
+        <v>38.87376595861019</v>
       </c>
       <c r="H81">
-        <v>30.49410038266156</v>
+        <v>38.93500291636148</v>
       </c>
       <c r="J81">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="K81">
-        <v>8.278364024789594</v>
+        <v>14.43345663503289</v>
       </c>
       <c r="L81">
-        <v>30.49410038266156</v>
+        <v>38.93500291636148</v>
       </c>
       <c r="M81">
-        <v>30.87215468205213</v>
+        <v>39.27375465730246</v>
       </c>
       <c r="N81">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="O81">
         <v>48</v>
@@ -3647,10 +3647,10 @@
         <v>138</v>
       </c>
       <c r="Q81">
-        <v>0.4298061516985534</v>
+        <v>0.4163903384994612</v>
       </c>
       <c r="R81">
-        <v>30.09260710888221</v>
+        <v>38.52944504518951</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -3658,25 +3658,25 @@
         <v>98</v>
       </c>
       <c r="F82">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
       <c r="H82">
-        <v>64.43573593201262</v>
+        <v>71.57571765076655</v>
       </c>
       <c r="J82">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K82">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L82">
-        <v>64.43573593201262</v>
+        <v>71.57571765076655</v>
       </c>
       <c r="M82">
-        <v>64.76123458248212</v>
+        <v>72.02310279170833</v>
       </c>
       <c r="N82">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O82">
         <v>72</v>
@@ -3685,10 +3685,10 @@
         <v>138</v>
       </c>
       <c r="Q82">
-        <v>0.7052710046818191</v>
+        <v>0.8073461609807424</v>
       </c>
       <c r="R82">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -3696,31 +3696,31 @@
         <v>99</v>
       </c>
       <c r="B83">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C83">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D83">
-        <v>64.28353326507306</v>
+        <v>71.46353326507307</v>
       </c>
       <c r="E83">
-        <v>64.39806039694552</v>
+        <v>71.63002260799566</v>
       </c>
       <c r="F83">
-        <v>64.31403546864561</v>
+        <v>71.52377320421456</v>
       </c>
       <c r="G83">
-        <v>64.31403546864561</v>
+        <v>71.52377320421456</v>
       </c>
       <c r="I83">
-        <v>64.3959614426562</v>
+        <v>71.60506960659224</v>
       </c>
       <c r="P83" t="s">
         <v>139</v>
       </c>
       <c r="Q83">
-        <v>0.1459614426562013</v>
+        <v>0.1750696065922313</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -3728,25 +3728,25 @@
         <v>100</v>
       </c>
       <c r="F84">
-        <v>64.39806039694552</v>
+        <v>71.63002260799566</v>
       </c>
       <c r="H84">
-        <v>64.47778494043077</v>
+        <v>71.65975562693168</v>
       </c>
       <c r="J84">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K84">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L84">
-        <v>64.47778494043077</v>
+        <v>71.65975562693168</v>
       </c>
       <c r="M84">
-        <v>64.76105404151413</v>
+        <v>72.05643617965512</v>
       </c>
       <c r="N84">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O84">
         <v>72</v>
@@ -3755,10 +3755,10 @@
         <v>138</v>
       </c>
       <c r="Q84">
-        <v>0.6809317725746951</v>
+        <v>0.7108377707507714</v>
       </c>
       <c r="R84">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -3766,31 +3766,31 @@
         <v>101</v>
       </c>
       <c r="B85">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C85">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D85">
-        <v>64.28341675618562</v>
+        <v>71.46341675618562</v>
       </c>
       <c r="E85">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
       <c r="F85">
-        <v>64.31885020368249</v>
+        <v>71.50007125637443</v>
       </c>
       <c r="G85">
-        <v>64.31885020368249</v>
+        <v>71.50007125637443</v>
       </c>
       <c r="I85">
-        <v>64.3638710391868</v>
+        <v>71.56303685860087</v>
       </c>
       <c r="P85" t="s">
         <v>139</v>
       </c>
       <c r="Q85">
-        <v>0.1138710391868045</v>
+        <v>0.1330368586008603</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -3798,25 +3798,25 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>64.42536304493422</v>
+        <v>71.58890204605018</v>
       </c>
       <c r="H86">
-        <v>64.49863138531434</v>
+        <v>71.6280297099527</v>
       </c>
       <c r="J86">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K86">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L86">
-        <v>64.49863138531434</v>
+        <v>71.6280297099527</v>
       </c>
       <c r="M86">
-        <v>64.82808234672204</v>
+        <v>72.02292225074034</v>
       </c>
       <c r="N86">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O86">
         <v>72</v>
@@ -3825,10 +3825,10 @@
         <v>138</v>
       </c>
       <c r="Q86">
-        <v>0.6536291245860042</v>
+        <v>0.7519583326962476</v>
       </c>
       <c r="R86">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -3836,31 +3836,31 @@
         <v>103</v>
       </c>
       <c r="B87">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C87">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D87">
-        <v>64.31683600192513</v>
+        <v>71.49683600192513</v>
       </c>
       <c r="E87">
-        <v>64.48363289621236</v>
+        <v>71.62519768300727</v>
       </c>
       <c r="F87">
-        <v>64.39231775629025</v>
+        <v>71.56650388744411</v>
       </c>
       <c r="G87">
-        <v>64.39231775629025</v>
+        <v>71.56650388744411</v>
       </c>
       <c r="I87">
-        <v>64.46055490887153</v>
+        <v>71.61705201284096</v>
       </c>
       <c r="P87" t="s">
         <v>139</v>
       </c>
       <c r="Q87">
-        <v>0.2105549088715293</v>
+        <v>0.187052012840951</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -3868,25 +3868,25 @@
         <v>104</v>
       </c>
       <c r="F88">
-        <v>64.42787705550526</v>
+        <v>71.62519768300727</v>
       </c>
       <c r="H88">
-        <v>64.49702393497084</v>
+        <v>71.66045407414143</v>
       </c>
       <c r="J88">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K88">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L88">
-        <v>64.49702393497084</v>
+        <v>71.66045407414143</v>
       </c>
       <c r="M88">
-        <v>64.79478492499589</v>
+        <v>72.0566531342221</v>
       </c>
       <c r="N88">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O88">
         <v>72</v>
@@ -3895,10 +3895,10 @@
         <v>138</v>
       </c>
       <c r="Q88">
-        <v>0.6511151140149565</v>
+        <v>0.7156626957391552</v>
       </c>
       <c r="R88">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -3906,31 +3906,31 @@
         <v>105</v>
       </c>
       <c r="B89">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C89">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D89">
-        <v>64.31697837629169</v>
+        <v>71.49697837629169</v>
       </c>
       <c r="E89">
-        <v>64.42536304493422</v>
+        <v>71.63135909927075</v>
       </c>
       <c r="F89">
-        <v>64.34311502133511</v>
+        <v>71.56773886624003</v>
       </c>
       <c r="G89">
-        <v>64.34311502133511</v>
+        <v>71.56773886624003</v>
       </c>
       <c r="I89">
-        <v>64.43924375045373</v>
+        <v>71.6443592056323</v>
       </c>
       <c r="P89" t="s">
         <v>139</v>
       </c>
       <c r="Q89">
-        <v>0.189243750453727</v>
+        <v>0.2143592056322916</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -3938,25 +3938,25 @@
         <v>106</v>
       </c>
       <c r="F90">
-        <v>64.48363289621236</v>
+        <v>71.61561025768177</v>
       </c>
       <c r="H90">
-        <v>64.4963283196646</v>
+        <v>71.68583020920772</v>
       </c>
       <c r="J90">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K90">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L90">
-        <v>64.4963283196646</v>
+        <v>71.68583020920772</v>
       </c>
       <c r="M90">
-        <v>64.79456797042891</v>
+        <v>72.08995055594825</v>
       </c>
       <c r="N90">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O90">
         <v>72</v>
@@ -3965,10 +3965,10 @@
         <v>138</v>
       </c>
       <c r="Q90">
-        <v>0.5953592733078636</v>
+        <v>0.7252501210646614</v>
       </c>
       <c r="R90">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -3976,31 +3976,31 @@
         <v>107</v>
       </c>
       <c r="B91">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C91">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D91">
-        <v>64.35028612590673</v>
+        <v>71.53020469298043</v>
       </c>
       <c r="E91">
-        <v>64.42787705550526</v>
+        <v>71.61561025768177</v>
       </c>
       <c r="F91">
-        <v>64.35869064058645</v>
+        <v>71.55919867170159</v>
       </c>
       <c r="G91">
-        <v>64.35869064058645</v>
+        <v>71.55919867170159</v>
       </c>
       <c r="I91">
-        <v>64.41922214566847</v>
+        <v>71.64105279005439</v>
       </c>
       <c r="P91" t="s">
         <v>139</v>
       </c>
       <c r="Q91">
-        <v>0.1692221456684706</v>
+        <v>0.2110527900543815</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -4008,31 +4008,31 @@
         <v>108</v>
       </c>
       <c r="B92">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C92">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D92">
-        <v>64.3504998534987</v>
+        <v>71.53057292175579</v>
       </c>
       <c r="E92">
-        <v>64.48859591426783</v>
+        <v>71.58890204605018</v>
       </c>
       <c r="F92">
-        <v>64.39575561754361</v>
+        <v>71.53871374149104</v>
       </c>
       <c r="G92">
-        <v>64.39575561754361</v>
+        <v>71.53871374149104</v>
       </c>
       <c r="I92">
-        <v>64.49484825360922</v>
+        <v>71.63127874756708</v>
       </c>
       <c r="P92" t="s">
         <v>139</v>
       </c>
       <c r="Q92">
-        <v>0.24484825360922</v>
+        <v>0.2012787475670734</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -4040,25 +4040,25 @@
         <v>109</v>
       </c>
       <c r="F93">
-        <v>64.48859591426783</v>
+        <v>71.63135909927075</v>
       </c>
       <c r="H93">
-        <v>64.52501833454481</v>
+        <v>71.70952753582714</v>
       </c>
       <c r="J93">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K93">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L93">
-        <v>64.52501833454481</v>
+        <v>71.70952753582714</v>
       </c>
       <c r="M93">
-        <v>64.86167946109224</v>
+        <v>72.12354767031844</v>
       </c>
       <c r="N93">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O93">
         <v>72</v>
@@ -4067,10 +4067,10 @@
         <v>138</v>
       </c>
       <c r="Q93">
-        <v>0.5903962552523865</v>
+        <v>0.7095012794756741</v>
       </c>
       <c r="R93">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -4078,31 +4078,31 @@
         <v>110</v>
       </c>
       <c r="B94">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C94">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D94">
-        <v>64.38380132191332</v>
+        <v>71.56353813907479</v>
       </c>
       <c r="E94">
-        <v>64.48806982779533</v>
+        <v>71.69402901809201</v>
       </c>
       <c r="F94">
-        <v>64.40215153436452</v>
+        <v>71.61172603711029</v>
       </c>
       <c r="G94">
-        <v>64.40215153436452</v>
+        <v>71.61172603711029</v>
       </c>
       <c r="I94">
-        <v>64.49594175131287</v>
+        <v>71.72225448804996</v>
       </c>
       <c r="P94" t="s">
         <v>139</v>
       </c>
       <c r="Q94">
-        <v>0.2459417513128699</v>
+        <v>0.2922544880499487</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -4110,25 +4110,25 @@
         <v>111</v>
       </c>
       <c r="F95">
-        <v>64.44754489995618</v>
+        <v>71.72609288147918</v>
       </c>
       <c r="H95">
-        <v>64.51157469067813</v>
+        <v>71.80263258177884</v>
       </c>
       <c r="J95">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K95">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L95">
-        <v>64.51157469067813</v>
+        <v>71.80263258177884</v>
       </c>
       <c r="M95">
-        <v>64.82832776755258</v>
+        <v>72.22374505103348</v>
       </c>
       <c r="N95">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O95">
         <v>72</v>
@@ -4137,10 +4137,10 @@
         <v>138</v>
       </c>
       <c r="Q95">
-        <v>0.6314472695640347</v>
+        <v>0.6147674972672519</v>
       </c>
       <c r="R95">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -4148,31 +4148,31 @@
         <v>112</v>
       </c>
       <c r="B96">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C96">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D96">
-        <v>64.38395600899851</v>
+        <v>71.56402566846413</v>
       </c>
       <c r="E96">
-        <v>64.44754489995618</v>
+        <v>71.69796650572776</v>
       </c>
       <c r="F96">
-        <v>64.39511237878936</v>
+        <v>71.63007996165072</v>
       </c>
       <c r="G96">
-        <v>64.39511237878936</v>
+        <v>71.63007996165072</v>
       </c>
       <c r="I96">
-        <v>64.49944821978676</v>
+        <v>71.71675599535524</v>
       </c>
       <c r="P96" t="s">
         <v>139</v>
       </c>
       <c r="Q96">
-        <v>0.2494482197867569</v>
+        <v>0.2867559953552359</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -4180,25 +4180,25 @@
         <v>113</v>
       </c>
       <c r="F97">
-        <v>64.48806982779533</v>
+        <v>71.69402901809201</v>
       </c>
       <c r="H97">
-        <v>64.56557721705468</v>
+        <v>71.70812523626347</v>
       </c>
       <c r="J97">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K97">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L97">
-        <v>64.56557721705468</v>
+        <v>71.70812523626347</v>
       </c>
       <c r="M97">
-        <v>64.89501845554149</v>
+        <v>72.09019597677879</v>
       </c>
       <c r="N97">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O97">
         <v>72</v>
@@ -4207,10 +4207,10 @@
         <v>138</v>
       </c>
       <c r="Q97">
-        <v>0.590922341724891</v>
+        <v>0.6468313606544172</v>
       </c>
       <c r="R97">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -4218,31 +4218,31 @@
         <v>114</v>
       </c>
       <c r="B98">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C98">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D98">
-        <v>64.41727783636053</v>
+        <v>71.59709259039705</v>
       </c>
       <c r="E98">
-        <v>64.59643143282123</v>
+        <v>71.72609288147918</v>
       </c>
       <c r="F98">
-        <v>64.48641206345025</v>
+        <v>71.61354052821075</v>
       </c>
       <c r="G98">
-        <v>64.48641206345025</v>
+        <v>71.61354052821075</v>
       </c>
       <c r="I98">
-        <v>64.56474006673125</v>
+        <v>71.71195854145978</v>
       </c>
       <c r="P98" t="s">
         <v>139</v>
       </c>
       <c r="Q98">
-        <v>0.3147400667312468</v>
+        <v>0.2819585414597725</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -4250,25 +4250,25 @@
         <v>115</v>
       </c>
       <c r="F99">
-        <v>64.50270087027288</v>
+        <v>71.67818768722073</v>
       </c>
       <c r="H99">
-        <v>64.53218362289077</v>
+        <v>71.71362540703301</v>
       </c>
       <c r="J99">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K99">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L99">
-        <v>64.53218362289077</v>
+        <v>71.71362540703301</v>
       </c>
       <c r="M99">
-        <v>64.86171647885324</v>
+        <v>72.12358468807945</v>
       </c>
       <c r="N99">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O99">
         <v>72</v>
@@ -4277,10 +4277,10 @@
         <v>138</v>
       </c>
       <c r="Q99">
-        <v>0.5762912992473446</v>
+        <v>0.6626726915256995</v>
       </c>
       <c r="R99">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -4288,25 +4288,25 @@
         <v>116</v>
       </c>
       <c r="F100">
-        <v>64.54011156099635</v>
+        <v>71.69796650572776</v>
       </c>
       <c r="H100">
-        <v>64.59241989294827</v>
+        <v>71.76660358601704</v>
       </c>
       <c r="J100">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K100">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L100">
-        <v>64.59241989294827</v>
+        <v>71.76660358601704</v>
       </c>
       <c r="M100">
-        <v>64.89509214061596</v>
+        <v>72.15696034984217</v>
       </c>
       <c r="N100">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O100">
         <v>72</v>
@@ -4315,10 +4315,10 @@
         <v>138</v>
       </c>
       <c r="Q100">
-        <v>0.5388806085238684</v>
+        <v>0.6428938730186644</v>
       </c>
       <c r="R100">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -4326,31 +4326,31 @@
         <v>117</v>
       </c>
       <c r="B101">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C101">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D101">
-        <v>64.41738245018057</v>
+        <v>71.59738255611322</v>
       </c>
       <c r="E101">
-        <v>64.50270087027288</v>
+        <v>71.72823317728999</v>
       </c>
       <c r="F101">
-        <v>64.45727595488883</v>
+        <v>71.65448264687294</v>
       </c>
       <c r="G101">
-        <v>64.45727595488883</v>
+        <v>71.65448264687294</v>
       </c>
       <c r="I101">
-        <v>64.54439558949963</v>
+        <v>71.74591555587521</v>
       </c>
       <c r="P101" t="s">
         <v>139</v>
       </c>
       <c r="Q101">
-        <v>0.2943955894996293</v>
+        <v>0.3159155558752076</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -4358,31 +4358,31 @@
         <v>118</v>
       </c>
       <c r="B102">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C102">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D102">
-        <v>64.45084720794236</v>
+        <v>71.63066196197889</v>
       </c>
       <c r="E102">
-        <v>64.54011156099635</v>
+        <v>71.75299048918139</v>
       </c>
       <c r="F102">
-        <v>64.47943143900238</v>
+        <v>71.66705869763776</v>
       </c>
       <c r="G102">
-        <v>64.47943143900238</v>
+        <v>71.66705869763776</v>
       </c>
       <c r="I102">
-        <v>64.55500231625653</v>
+        <v>71.74995232958818</v>
       </c>
       <c r="P102" t="s">
         <v>139</v>
       </c>
       <c r="Q102">
-        <v>0.3050023162565338</v>
+        <v>0.3199523295881761</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -4390,25 +4390,25 @@
         <v>119</v>
       </c>
       <c r="F103">
-        <v>64.59643143282123</v>
+        <v>71.72823317728999</v>
       </c>
       <c r="H103">
-        <v>64.66637936413419</v>
+        <v>71.76443104009988</v>
       </c>
       <c r="J103">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K103">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L103">
-        <v>64.66637936413419</v>
+        <v>71.76443104009988</v>
       </c>
       <c r="M103">
-        <v>64.9620053137786</v>
+        <v>72.1568866647677</v>
       </c>
       <c r="N103">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O103">
         <v>72</v>
@@ -4417,10 +4417,10 @@
         <v>138</v>
       </c>
       <c r="Q103">
-        <v>0.4825607366989857</v>
+        <v>0.6126272014564336</v>
       </c>
       <c r="R103">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -4428,25 +4428,25 @@
         <v>120</v>
       </c>
       <c r="F104">
-        <v>64.56256296625897</v>
+        <v>71.75299048918139</v>
       </c>
       <c r="H104">
-        <v>64.62877099543446</v>
+        <v>71.77248684136205</v>
       </c>
       <c r="J104">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K104">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L104">
-        <v>64.62877099543446</v>
+        <v>71.77248684136205</v>
       </c>
       <c r="M104">
-        <v>64.92861143473947</v>
+        <v>72.19025505948294</v>
       </c>
       <c r="N104">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O104">
         <v>72</v>
@@ -4455,10 +4455,10 @@
         <v>138</v>
       </c>
       <c r="Q104">
-        <v>0.5164292032612536</v>
+        <v>0.5878698895650416</v>
       </c>
       <c r="R104">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -4466,31 +4466,31 @@
         <v>121</v>
       </c>
       <c r="B105">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C105">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D105">
-        <v>64.45083090601696</v>
+        <v>71.63089082427453</v>
       </c>
       <c r="E105">
-        <v>64.56256296625897</v>
+        <v>71.67818768722073</v>
       </c>
       <c r="F105">
-        <v>64.48268139376049</v>
+        <v>71.65259885686497</v>
       </c>
       <c r="G105">
-        <v>64.48268139376049</v>
+        <v>71.65259885686497</v>
       </c>
       <c r="I105">
-        <v>64.56991197429336</v>
+        <v>71.72524347334144</v>
       </c>
       <c r="P105" t="s">
         <v>139</v>
       </c>
       <c r="Q105">
-        <v>0.3199119742933618</v>
+        <v>0.2952434733414293</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -4498,31 +4498,31 @@
         <v>122</v>
       </c>
       <c r="B106">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C106">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D106">
-        <v>64.48421309676188</v>
+        <v>71.6640249028946</v>
       </c>
       <c r="E106">
-        <v>64.62056353668967</v>
+        <v>71.82552362752051</v>
       </c>
       <c r="F106">
-        <v>64.55672255058974</v>
+        <v>71.74040884099733</v>
       </c>
       <c r="G106">
-        <v>64.55672255058974</v>
+        <v>71.74040884099733</v>
       </c>
       <c r="I106">
-        <v>64.64656055701469</v>
+        <v>71.82628250219418</v>
       </c>
       <c r="P106" t="s">
         <v>139</v>
       </c>
       <c r="Q106">
-        <v>0.3965605570146948</v>
+        <v>0.3962825021941683</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -4530,25 +4530,25 @@
         <v>123</v>
       </c>
       <c r="F107">
-        <v>64.62381630215273</v>
+        <v>71.77142221553389</v>
       </c>
       <c r="H107">
-        <v>64.63882004773667</v>
+        <v>71.797887973681</v>
       </c>
       <c r="J107">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K107">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L107">
-        <v>64.63882004773667</v>
+        <v>71.797887973681</v>
       </c>
       <c r="M107">
-        <v>64.96187684180727</v>
+        <v>72.19047964396567</v>
       </c>
       <c r="N107">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O107">
         <v>72</v>
@@ -4557,10 +4557,10 @@
         <v>138</v>
       </c>
       <c r="Q107">
-        <v>0.4551758673674868</v>
+        <v>0.5694381632125385</v>
       </c>
       <c r="R107">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -4568,31 +4568,31 @@
         <v>124</v>
       </c>
       <c r="B108">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C108">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D108">
-        <v>64.4843244184286</v>
+        <v>71.66427301501945</v>
       </c>
       <c r="E108">
-        <v>64.62381630215273</v>
+        <v>71.81771870189057</v>
       </c>
       <c r="F108">
-        <v>64.5212092096436</v>
+        <v>71.72392243202455</v>
       </c>
       <c r="G108">
-        <v>64.5212092096436</v>
+        <v>71.72392243202455</v>
       </c>
       <c r="I108">
-        <v>64.59604519391097</v>
+        <v>71.82750050633453</v>
       </c>
       <c r="P108" t="s">
         <v>139</v>
       </c>
       <c r="Q108">
-        <v>0.3460451939109674</v>
+        <v>0.3975005063345236</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -4600,25 +4600,25 @@
         <v>125</v>
       </c>
       <c r="F109">
-        <v>64.58723530081311</v>
+        <v>71.81771870189057</v>
       </c>
       <c r="H109">
-        <v>64.6124002039389</v>
+        <v>71.87734517073237</v>
       </c>
       <c r="J109">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K109">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L109">
-        <v>64.6124002039389</v>
+        <v>71.87734517073237</v>
       </c>
       <c r="M109">
-        <v>64.92838685025673</v>
+        <v>72.25727268019216</v>
       </c>
       <c r="N109">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O109">
         <v>72</v>
@@ -4627,10 +4627,10 @@
         <v>138</v>
       </c>
       <c r="Q109">
-        <v>0.4917568687071139</v>
+        <v>0.5231416768558574</v>
       </c>
       <c r="R109">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -4638,25 +4638,25 @@
         <v>126</v>
       </c>
       <c r="F110">
-        <v>64.62056353668967</v>
+        <v>71.82552362752051</v>
       </c>
       <c r="H110">
-        <v>64.68275907909357</v>
+        <v>71.83614526443313</v>
       </c>
       <c r="J110">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K110">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L110">
-        <v>64.68275907909357</v>
+        <v>71.83614526443313</v>
       </c>
       <c r="M110">
-        <v>64.99555167436148</v>
+        <v>72.22387352300481</v>
       </c>
       <c r="N110">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O110">
         <v>72</v>
@@ -4665,10 +4665,10 @@
         <v>138</v>
       </c>
       <c r="Q110">
-        <v>0.4584286328305467</v>
+        <v>0.5153367512259166</v>
       </c>
       <c r="R110">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -4676,31 +4676,31 @@
         <v>127</v>
       </c>
       <c r="B111">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C111">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D111">
-        <v>64.51771183351701</v>
+        <v>71.6975284174287</v>
       </c>
       <c r="E111">
-        <v>64.58723530081311</v>
+        <v>71.88885275955916</v>
       </c>
       <c r="F111">
-        <v>64.52516083755313</v>
+        <v>71.76589971923376</v>
       </c>
       <c r="G111">
-        <v>64.52516083755313</v>
+        <v>71.76589971923376</v>
       </c>
       <c r="I111">
-        <v>64.62581004320259</v>
+        <v>71.86921121712315</v>
       </c>
       <c r="P111" t="s">
         <v>139</v>
       </c>
       <c r="Q111">
-        <v>0.3758100432025913</v>
+        <v>0.4392112171231446</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -4708,31 +4708,31 @@
         <v>128</v>
       </c>
       <c r="B112">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C112">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D112">
-        <v>64.51790537007466</v>
+        <v>71.69774656450967</v>
       </c>
       <c r="E112">
-        <v>64.64102520041861</v>
+        <v>71.77142221553389</v>
       </c>
       <c r="F112">
-        <v>64.55421938882594</v>
+        <v>71.71482156099441</v>
       </c>
       <c r="G112">
-        <v>64.55421938882594</v>
+        <v>71.71482156099441</v>
       </c>
       <c r="I112">
-        <v>64.65338712107069</v>
+        <v>71.81122905668332</v>
       </c>
       <c r="P112" t="s">
         <v>139</v>
       </c>
       <c r="Q112">
-        <v>0.4033871210706934</v>
+        <v>0.3812290566833099</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -4740,25 +4740,25 @@
         <v>129</v>
       </c>
       <c r="F113">
-        <v>64.64102520041861</v>
+        <v>71.8281843273116</v>
       </c>
       <c r="H113">
-        <v>64.69467063885403</v>
+        <v>71.88140134238952</v>
       </c>
       <c r="J113">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K113">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L113">
-        <v>64.69467063885403</v>
+        <v>71.88140134238952</v>
       </c>
       <c r="M113">
-        <v>65.02905368755422</v>
+        <v>72.25741988358769</v>
       </c>
       <c r="N113">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O113">
         <v>72</v>
@@ -4767,10 +4767,10 @@
         <v>138</v>
       </c>
       <c r="Q113">
-        <v>0.437966969101609</v>
+        <v>0.5126760514348234</v>
       </c>
       <c r="R113">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -4778,31 +4778,31 @@
         <v>130</v>
       </c>
       <c r="B114">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C114">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D114">
-        <v>64.55112144391893</v>
+        <v>71.73103584755009</v>
       </c>
       <c r="E114">
-        <v>64.64544930647052</v>
+        <v>71.8281843273116</v>
       </c>
       <c r="F114">
-        <v>64.60936559541304</v>
+        <v>71.78910053099766</v>
       </c>
       <c r="G114">
-        <v>64.60936559541304</v>
+        <v>71.78910053099766</v>
       </c>
       <c r="I114">
-        <v>64.67817134505398</v>
+        <v>71.85315009666523</v>
       </c>
       <c r="P114" t="s">
         <v>139</v>
       </c>
       <c r="Q114">
-        <v>0.4281713450539826</v>
+        <v>0.4231500966652249</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -4810,25 +4810,25 @@
         <v>131</v>
       </c>
       <c r="F115">
-        <v>64.64544930647052</v>
+        <v>71.88885275955916</v>
       </c>
       <c r="H115">
-        <v>64.70682218011156</v>
+        <v>71.93800645076139</v>
       </c>
       <c r="J115">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K115">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L115">
-        <v>64.70682218011156</v>
+        <v>71.93800645076139</v>
       </c>
       <c r="M115">
-        <v>65.06232550285355</v>
+        <v>72.29065262162088</v>
       </c>
       <c r="N115">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O115">
         <v>72</v>
@@ -4837,10 +4837,10 @@
         <v>138</v>
       </c>
       <c r="Q115">
-        <v>0.4335428630496949</v>
+        <v>0.4520076191872704</v>
       </c>
       <c r="R115">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -4848,31 +4848,31 @@
         <v>132</v>
       </c>
       <c r="B116">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C116">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D116">
-        <v>64.55131807233879</v>
+        <v>71.73110142099685</v>
       </c>
       <c r="E116">
-        <v>64.65832443330531</v>
+        <v>71.90842039992003</v>
       </c>
       <c r="F116">
-        <v>64.61417017836237</v>
+        <v>71.78776447086572</v>
       </c>
       <c r="G116">
-        <v>64.61417017836237</v>
+        <v>71.78776447086572</v>
       </c>
       <c r="I116">
-        <v>64.69238359568672</v>
+        <v>71.88078072243158</v>
       </c>
       <c r="P116" t="s">
         <v>139</v>
       </c>
       <c r="Q116">
-        <v>0.4423835956867208</v>
+        <v>0.4507807224315741</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -4880,25 +4880,25 @@
         <v>133</v>
       </c>
       <c r="F117">
-        <v>64.6750111872295</v>
+        <v>71.87622640300569</v>
       </c>
       <c r="H117">
-        <v>64.68685631831011</v>
+        <v>71.94668274185663</v>
       </c>
       <c r="J117">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K117">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L117">
-        <v>64.68685631831011</v>
+        <v>71.94668274185663</v>
       </c>
       <c r="M117">
-        <v>65.02878441239467</v>
+        <v>72.29092189678043</v>
       </c>
       <c r="N117">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O117">
         <v>72</v>
@@ -4907,10 +4907,10 @@
         <v>138</v>
       </c>
       <c r="Q117">
-        <v>0.4039809822907188</v>
+        <v>0.4646339757407389</v>
       </c>
       <c r="R117">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -4918,31 +4918,31 @@
         <v>134</v>
       </c>
       <c r="B118">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C118">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D118">
-        <v>64.58457027009507</v>
+        <v>71.76451990620023</v>
       </c>
       <c r="E118">
-        <v>64.6750111872295</v>
+        <v>71.91530226349172</v>
       </c>
       <c r="F118">
-        <v>64.59602991023127</v>
+        <v>71.80257916681653</v>
       </c>
       <c r="G118">
-        <v>64.59602991023127</v>
+        <v>71.80257916681653</v>
       </c>
       <c r="I118">
-        <v>64.68347807149178</v>
+        <v>71.89009113284894</v>
       </c>
       <c r="P118" t="s">
         <v>139</v>
       </c>
       <c r="Q118">
-        <v>0.433478071491777</v>
+        <v>0.4600911328489303</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -4950,25 +4950,25 @@
         <v>135</v>
       </c>
       <c r="F119">
-        <v>64.65832443330531</v>
+        <v>71.90842039992003</v>
       </c>
       <c r="H119">
-        <v>64.67925479840784</v>
+        <v>71.97651086837173</v>
       </c>
       <c r="J119">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K119">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L119">
-        <v>64.67925479840784</v>
+        <v>71.97651086837173</v>
       </c>
       <c r="M119">
-        <v>64.99540447096595</v>
+        <v>72.32419371207976</v>
       </c>
       <c r="N119">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O119">
         <v>72</v>
@@ -4977,10 +4977,10 @@
         <v>138</v>
       </c>
       <c r="Q119">
-        <v>0.4206677362149094</v>
+        <v>0.4324399788263946</v>
       </c>
       <c r="R119">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -4988,25 +4988,25 @@
         <v>136</v>
       </c>
       <c r="F120">
-        <v>64.69883828979599</v>
+        <v>71.91530226349172</v>
       </c>
       <c r="H120">
-        <v>64.72577261186375</v>
+        <v>71.98249830678654</v>
       </c>
       <c r="J120">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="K120">
-        <v>30.8888213487188</v>
+        <v>39.29015629710965</v>
       </c>
       <c r="L120">
-        <v>64.72577261186375</v>
+        <v>71.98249830678654</v>
       </c>
       <c r="M120">
-        <v>65.06241883557405</v>
+        <v>72.32428704480026</v>
       </c>
       <c r="N120">
-        <v>65.07899216952022</v>
+        <v>72.34086037874643</v>
       </c>
       <c r="O120">
         <v>72</v>
@@ -5015,10 +5015,10 @@
         <v>138</v>
       </c>
       <c r="Q120">
-        <v>0.380153879724233</v>
+        <v>0.4255581152547023</v>
       </c>
       <c r="R120">
-        <v>64.3737211648384</v>
+        <v>71.53351421776568</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -5026,31 +5026,31 @@
         <v>137</v>
       </c>
       <c r="B121">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C121">
-        <v>64.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D121">
-        <v>64.58476811220484</v>
+        <v>71.76449220832727</v>
       </c>
       <c r="E121">
-        <v>64.69883828979599</v>
+        <v>71.87622640300569</v>
       </c>
       <c r="F121">
-        <v>64.61600795471138</v>
+        <v>71.80067562956667</v>
       </c>
       <c r="G121">
-        <v>64.61600795471138</v>
+        <v>71.80067562956667</v>
       </c>
       <c r="I121">
-        <v>64.68933007670394</v>
+        <v>71.86103472527056</v>
       </c>
       <c r="P121" t="s">
         <v>139</v>
       </c>
       <c r="Q121">
-        <v>0.4393300767039392</v>
+        <v>0.4310347252705498</v>
       </c>
     </row>
   </sheetData>
